--- a/ギア比.xlsx
+++ b/ギア比.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muzho\Documents\GitHub\srdc_ksh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1101A7C-E21A-4A93-918E-59F30C79327C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B3A75A-742A-4C3D-9CF4-4ADC9F419118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-22335" yWindow="2895" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4410" yWindow="3345" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -360,43 +360,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>8</v>
       </c>
       <c r="B1">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>80</v>
       </c>
       <c r="B2">
         <v>20</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <f>A2/A1*B2/B1</f>
         <v>28.571428571428573</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>

--- a/ギア比.xlsx
+++ b/ギア比.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muzho\Documents\GitHub\srdc_ksh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acps\Documents\srdc\srdc_ksh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B3A75A-742A-4C3D-9CF4-4ADC9F419118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4811F55-8E13-493D-8418-8E2670E4C52C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4410" yWindow="3345" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,12 +49,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -363,45 +370,54 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1">
         <v>8</v>
       </c>
       <c r="B1">
         <v>7</v>
       </c>
+      <c r="C1">
+        <f>B2</f>
+        <v>15</v>
+      </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>80</v>
       </c>
       <c r="B2">
+        <v>15</v>
+      </c>
+      <c r="C2">
         <v>20</v>
       </c>
       <c r="E2">
-        <f>A2/A1*B2/B1</f>
-        <v>28.571428571428573</v>
+        <f>A2/A1*B2/B1*C2/C1</f>
+        <v>28.571428571428569</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ギア比.xlsx
+++ b/ギア比.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acps\Documents\srdc\srdc_ksh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4811F55-8E13-493D-8418-8E2670E4C52C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545F8A89-7CF9-4E1C-A524-D8B13CC252E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4960" yWindow="2170" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -370,7 +370,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>

--- a/ギア比.xlsx
+++ b/ギア比.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acps\Documents\srdc\srdc_ksh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4811F55-8E13-493D-8418-8E2670E4C52C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FFCD3C-4FDA-4885-8ADB-9453381CC8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-240" yWindow="3840" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -370,27 +370,26 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>8</v>
       </c>
       <c r="B1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C1">
-        <f>B2</f>
         <v>15</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>80</v>
       </c>
@@ -398,19 +397,19 @@
         <v>15</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E2">
         <f>A2/A1*B2/B1*C2/C1</f>
-        <v>28.571428571428569</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>2</v>
       </c>

--- a/ギア比.xlsx
+++ b/ギア比.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acps\Documents\srdc\srdc_ksh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FFCD3C-4FDA-4885-8ADB-9453381CC8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BB454E-D2E8-4DA6-AC87-3ABA9AB39EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-240" yWindow="3840" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24375" yWindow="885" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -370,7 +370,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -382,9 +382,6 @@
       <c r="B1">
         <v>10</v>
       </c>
-      <c r="C1">
-        <v>15</v>
-      </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
@@ -394,13 +391,10 @@
         <v>80</v>
       </c>
       <c r="B2">
-        <v>15</v>
-      </c>
-      <c r="C2">
         <v>28</v>
       </c>
       <c r="E2">
-        <f>A2/A1*B2/B1*C2/C1</f>
+        <f>A2/A1*B2/B1</f>
         <v>28</v>
       </c>
     </row>

--- a/ギア比.xlsx
+++ b/ギア比.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acps\Documents\srdc\srdc_ksh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BB454E-D2E8-4DA6-AC87-3ABA9AB39EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D374CA75-9C2A-4693-A692-A4119339334B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24375" yWindow="885" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22995" yWindow="-735" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,8 +85,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -367,15 +368,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>8</v>
       </c>
@@ -385,8 +386,14 @@
       <c r="E1" t="s">
         <v>0</v>
       </c>
+      <c r="H1" s="1">
+        <v>10</v>
+      </c>
+      <c r="I1">
+        <v>0.45</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>80</v>
       </c>
@@ -398,12 +405,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>2</v>
       </c>
